--- a/Data/easy_trial_seperate_schemes/_c_visit__anthropometrics_and_dxa.mITT.data .xlsx
+++ b/Data/easy_trial_seperate_schemes/_c_visit__anthropometrics_and_dxa.mITT.data .xlsx
@@ -5983,7 +5983,7 @@
         <v>3397</v>
       </c>
       <c r="O38" s="2">
-        <v>373685</v>
+        <v>44967</v>
       </c>
       <c r="P38">
         <v>7505</v>
